--- a/MAINTENANCE CABLE REQUEST TO VTC.xlsx
+++ b/MAINTENANCE CABLE REQUEST TO VTC.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f28c95d757c77310/Desktop/Maintenance tool/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\trc_auto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{5D144DE2-1432-4957-888A-4374B4843B37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{56878F33-D2B5-4D2C-B782-479308C20C83}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A5B1A93-932F-49AC-8E16-73D2369A6358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="260" windowWidth="28780" windowHeight="17260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-2715" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Logdata" sheetId="1" r:id="rId1"/>
@@ -24,8 +24,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -84,9 +82,6 @@
     <t>ស្នើចុះថែទាំខ្សែក្នុងវង្វង់ចំណុចចាប់ផ្តើមនិងបញ្ចប់ Lat/Long ខាងលើ ដើម្បី៖</t>
   </si>
   <si>
-    <t>ប្រវែងខ្សែកាប្លិ៍ដែលត្រូវជួសថ្មីគឺត្រូវតិចជាង២០០ម៉ែត្រ-Length of​ replacement broken cable must be less than 200m (ករណីប្រវែងខ្សែច្រើនជាង ២០០ម៉ែត្រក្រុមហ៊ុនត្រូវអនុវត្តនីតិវិធីសាងសង់ថ្មី-  If length of cable is larger than 200m,company has to follow the new build procedure):</t>
-  </si>
-  <si>
     <t>កាលបរិច្ឆេទនៃការកាត់ផ្តាច់-Date of Damage:</t>
   </si>
   <si>
@@ -240,6 +235,9 @@
   </si>
   <si>
     <t>CNN</t>
+  </si>
+  <si>
+    <t>ប្រវែងខ្សែកាប្លិ៍ដែលត្រូវជួសថ្មីគឺត្រូវតិចជាង២០០ម៉ែត្រ-Length of​ replacement broken cable must be less than 200m (ករណីប្រវែងខ្សែច្រើនជាង ២០០ម៉ែត្រក្រុមហ៊ុនត្រូវអនុវត្តនីតិវិធីសាងសង់ថ្មី-  If length of cable is larger than 200m,company has to follow the n</t>
   </si>
 </sst>
 </file>
@@ -691,8 +689,8 @@
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Timestamp"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Company"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Staff name"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Staff ID" dataDxfId="0"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Staff phone number" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Staff ID" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Staff phone number" dataDxfId="0"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="ក្រុមហ៊ុនស្នើសុំ-Requested Company:"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="ជួសជុលជូនក្រុមហ៊ុនឬអតិថិជន-Repair for company/customers:"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="ប្រភេទហេដ្ឋារចនាសម្ព័ន្ធ-Type of Infrastructure:"/>
@@ -922,9 +920,9 @@
   </sheetPr>
   <dimension ref="A1:Z5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomLeft" activeCell="V1" sqref="V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -997,34 +995,34 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
@@ -1032,49 +1030,49 @@
         <v>45755.507338530093</v>
       </c>
       <c r="B2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="F2" s="9" t="s">
+      <c r="G2" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="H2" s="9" t="s">
+      <c r="I2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="9" t="s">
-        <v>29</v>
-      </c>
       <c r="J2" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="L2" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="L2" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="N2" s="9" t="s">
+      <c r="O2" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="O2" s="9" t="s">
-        <v>48</v>
-      </c>
       <c r="P2" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q2" s="9">
         <v>120</v>
@@ -1086,13 +1084,13 @@
         <v>45755</v>
       </c>
       <c r="T2" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="U2" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="U2" s="11" t="s">
+      <c r="V2" s="11" t="s">
         <v>50</v>
-      </c>
-      <c r="V2" s="11" t="s">
-        <v>51</v>
       </c>
       <c r="W2" s="9">
         <v>98521422121</v>
@@ -1101,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="Y2" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z2" s="12" t="s">
         <v>41</v>
-      </c>
-      <c r="Z2" s="12" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
@@ -1112,49 +1110,49 @@
         <v>45755.510169629633</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="H3" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="5" t="s">
-        <v>29</v>
-      </c>
       <c r="J3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="K3" s="5" t="s">
-        <v>44</v>
-      </c>
       <c r="L3" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="P3" s="5" t="s">
         <v>33</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>34</v>
       </c>
       <c r="Q3" s="5">
         <v>0</v>
@@ -1166,13 +1164,13 @@
         <v>45755</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U3" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="V3" s="13" t="s">
         <v>53</v>
-      </c>
-      <c r="V3" s="13" t="s">
-        <v>54</v>
       </c>
       <c r="W3" s="5">
         <v>98531183205</v>
@@ -1181,10 +1179,10 @@
         <v>0</v>
       </c>
       <c r="Y3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z3" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="Z3" s="7" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
@@ -1192,49 +1190,49 @@
         <v>45755.517612372685</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="H4" s="9" t="s">
+      <c r="I4" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="J4" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="M4" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="K4" s="9" t="s">
+      <c r="N4" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="L4" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="M4" s="9" t="s">
+      <c r="O4" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="P4" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="N4" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="O4" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="P4" s="9" t="s">
-        <v>31</v>
       </c>
       <c r="Q4" s="9">
         <v>50</v>
@@ -1246,13 +1244,13 @@
         <v>45756</v>
       </c>
       <c r="T4" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="U4" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="V4" s="11" t="s">
         <v>58</v>
-      </c>
-      <c r="V4" s="11" t="s">
-        <v>59</v>
       </c>
       <c r="W4" s="9">
         <v>98230976407</v>
@@ -1261,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="Y4" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z4" s="12" t="s">
         <v>41</v>
-      </c>
-      <c r="Z4" s="12" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
@@ -1272,49 +1270,49 @@
         <v>45755.519416620373</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="H5" s="5" t="s">
+      <c r="I5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="5" t="s">
-        <v>29</v>
-      </c>
       <c r="J5" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K5" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="N5" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="L5" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="N5" s="5" t="s">
+      <c r="O5" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="O5" s="5" t="s">
-        <v>62</v>
-      </c>
       <c r="P5" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q5" s="5">
         <v>180</v>
@@ -1326,13 +1324,13 @@
         <v>45755</v>
       </c>
       <c r="T5" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U5" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="V5" s="13" t="s">
         <v>63</v>
-      </c>
-      <c r="V5" s="13" t="s">
-        <v>64</v>
       </c>
       <c r="W5" s="5">
         <v>98630926091</v>
@@ -1341,10 +1339,10 @@
         <v>0</v>
       </c>
       <c r="Y5" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z5" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="Z5" s="7" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/MAINTENANCE CABLE REQUEST TO VTC.xlsx
+++ b/MAINTENANCE CABLE REQUEST TO VTC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\trc_auto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A5B1A93-932F-49AC-8E16-73D2369A6358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BB67C64-517D-4225-8937-CD098E9BE2FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-2715" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
   <si>
     <t>Timestamp</t>
   </si>
@@ -114,45 +114,6 @@
     <t>GIS</t>
   </si>
   <si>
-    <t>VTC-ភាសាខ្មែរ (ខេមបូឌា)</t>
-  </si>
-  <si>
-    <t>Last Mile (1–2 cores)</t>
-  </si>
-  <si>
-    <t>លើអាកាស</t>
-  </si>
-  <si>
-    <t>Phnom Penh</t>
-  </si>
-  <si>
-    <t>ជួសខ្សែកាប្លិ៍ថ្មី (ករណីនេះចំណុចចាប់ផ្តើមនិងបញ្ចប់ Lat/Long ត្រូវផ្សេងពីគ្នា A--&gt;B)</t>
-  </si>
-  <si>
-    <t>EDC cut cable</t>
-  </si>
-  <si>
-    <t>Battambang</t>
-  </si>
-  <si>
-    <t>ត្រួតពិនិត្យមើលខ្សែ ឬរៀបចំសណ្តាប់ធ្នាប់បណ្តាញខ្សែកាប្លិ៍</t>
-  </si>
-  <si>
-    <t>1core</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maintenance </t>
-  </si>
-  <si>
-    <t>Siem Reap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1core </t>
-  </si>
-  <si>
-    <t>Fire pole</t>
-  </si>
-  <si>
     <t>Pursat</t>
   </si>
   <si>
@@ -162,12 +123,6 @@
     <t>FBB</t>
   </si>
   <si>
-    <t>1*core</t>
-  </si>
-  <si>
-    <t>ភូមិនិគមន ឃុំជ្រោយស្ដៅ ស្រុកថ្មគោល ខេត្តបាត់ដំបង</t>
-  </si>
-  <si>
     <t>CABLE 1FO</t>
   </si>
   <si>
@@ -189,55 +144,25 @@
     <t>https://drive.google.com/open?id=1r-Lsc_zpXH41pxNqVECu3x6j8s9AxVLh</t>
   </si>
   <si>
-    <t>13.338171, 103.0989</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1tsT2j-_Gh0eKWEpJ2hLb81zxVvkN6OwW</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1_IJdKDj_tN2UCK8lByTXyg9i_IUmou0u</t>
-  </si>
-  <si>
-    <t>ផ្លូវបេតុង,ភូមិគោកឃ្លាង,សង្កាត់គោកឃ្លាង,ខណ្ឌសែនសុខ,រាជនីភ្នំពេញ</t>
-  </si>
-  <si>
-    <t>11.577117, 104.858711</t>
-  </si>
-  <si>
-    <t>11.577331, 104.858736</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1sNHj1H0OvjtrND8zdq9OV-frlDlZ_e8N</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1qRE06ZytF7fr6s-PHNYpO0cG8h5rb8Xb</t>
-  </si>
-  <si>
-    <t>ភូមិកំភេន ឃុំកែវពណ៏ ស្រុកពួក ខេត្តសៀមរាប</t>
-  </si>
-  <si>
-    <t>13.391216, 103.744388</t>
-  </si>
-  <si>
-    <t>13.389948, 103.743297</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1K4YZisyGU_We-wRC_nAngFalf1MQxLV3</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=14mXJ4r6lZyKvhDrwfA2Ky7sr_oQ3DzpR</t>
-  </si>
-  <si>
     <t>Test</t>
   </si>
   <si>
     <t>Mai Quoc Khanh</t>
   </si>
   <si>
-    <t>CNN</t>
-  </si>
-  <si>
     <t>ប្រវែងខ្សែកាប្លិ៍ដែលត្រូវជួសថ្មីគឺត្រូវតិចជាង២០០ម៉ែត្រ-Length of​ replacement broken cable must be less than 200m (ករណីប្រវែងខ្សែច្រើនជាង ២០០ម៉ែត្រក្រុមហ៊ុនត្រូវអនុវត្តនីតិវិធីសាងសង់ថ្មី-  If length of cable is larger than 200m,company has to follow the n</t>
+  </si>
+  <si>
+    <t>VTC-វៀតធេល (ខេមបូឌា)</t>
+  </si>
+  <si>
+    <t>Last Mile(1-2Cores)</t>
+  </si>
+  <si>
+    <t>លើអាកាស (Overhead)</t>
+  </si>
+  <si>
+    <t>Fiber Optical Cable Slicing/Fiber Optical Cleaver</t>
   </si>
 </sst>
 </file>
@@ -247,7 +172,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -271,6 +196,13 @@
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -428,7 +360,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -468,6 +400,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -920,9 +858,9 @@
   </sheetPr>
   <dimension ref="A1:Z5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V1" sqref="V1"/>
+      <selection pane="bottomLeft" activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -945,7 +883,7 @@
     <col min="23" max="26" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -991,11 +929,11 @@
       <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="15" t="s">
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="R1" s="2" t="s">
         <v>16</v>
@@ -1025,7 +963,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="8">
         <v>45755.507338530093</v>
       </c>
@@ -1033,46 +971,46 @@
         <v>25</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="F2" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>39</v>
-      </c>
       <c r="N2" s="9" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="P2" s="9" t="s">
-        <v>30</v>
+        <v>32</v>
+      </c>
+      <c r="P2" s="14" t="s">
+        <v>42</v>
       </c>
       <c r="Q2" s="9">
         <v>120</v>
@@ -1084,13 +1022,13 @@
         <v>45755</v>
       </c>
       <c r="T2" s="9" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="U2" s="11" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="V2" s="11" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="W2" s="9">
         <v>98521422121</v>
@@ -1099,266 +1037,105 @@
         <v>0</v>
       </c>
       <c r="Y2" s="9" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="Z2" s="12" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
-        <v>45755.510169629633</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q3" s="5">
-        <v>0</v>
-      </c>
-      <c r="R3" s="6">
-        <v>45755</v>
-      </c>
-      <c r="S3" s="6">
-        <v>45755</v>
-      </c>
-      <c r="T3" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="U3" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="V3" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="W3" s="5">
-        <v>98531183205</v>
-      </c>
-      <c r="X3" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z3" s="7" t="s">
-        <v>41</v>
-      </c>
+    <row r="3" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="13"/>
+      <c r="V3" s="13"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="7"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A4" s="8">
-        <v>45755.517612372685</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="M4" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="N4" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="O4" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="P4" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q4" s="9">
-        <v>50</v>
-      </c>
-      <c r="R4" s="10">
-        <v>45755</v>
-      </c>
-      <c r="S4" s="10">
-        <v>45756</v>
-      </c>
-      <c r="T4" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="U4" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="V4" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="W4" s="9">
-        <v>98230976407</v>
-      </c>
-      <c r="X4" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z4" s="12" t="s">
-        <v>41</v>
-      </c>
+      <c r="A4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="9"/>
+      <c r="X4" s="9"/>
+      <c r="Y4" s="9"/>
+      <c r="Z4" s="12"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
-        <v>45755.519416620373</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="O5" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="P5" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q5" s="5">
-        <v>180</v>
-      </c>
-      <c r="R5" s="6">
-        <v>45755</v>
-      </c>
-      <c r="S5" s="6">
-        <v>45755</v>
-      </c>
-      <c r="T5" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="U5" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="V5" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="W5" s="5">
-        <v>98630926091</v>
-      </c>
-      <c r="X5" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z5" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="A5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="13"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="U2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-00006F0E0000}"/>
     <hyperlink ref="V2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-0000700E0000}"/>
-    <hyperlink ref="U3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-0000710E0000}"/>
-    <hyperlink ref="V3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-0000720E0000}"/>
-    <hyperlink ref="U4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-0000730E0000}"/>
-    <hyperlink ref="V4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-0000740E0000}"/>
-    <hyperlink ref="U5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-0000750E0000}"/>
-    <hyperlink ref="V5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-0000760E0000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
   <tableParts count="1">
-    <tablePart r:id="rId9"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
--- a/MAINTENANCE CABLE REQUEST TO VTC.xlsx
+++ b/MAINTENANCE CABLE REQUEST TO VTC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\trc_auto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BB67C64-517D-4225-8937-CD098E9BE2FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C12089A-B8ED-4E25-A816-F7C687E465AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-2715" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="43">
   <si>
     <t>Timestamp</t>
   </si>
@@ -172,7 +172,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -184,12 +184,6 @@
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Roboto"/>
     </font>
     <font>
       <u/>
@@ -213,7 +207,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -271,51 +265,6 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF442F65"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF442F65"/>
-      </left>
-      <right style="thin">
         <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
@@ -360,7 +309,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -380,31 +329,16 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -856,11 +790,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z5"/>
+  <dimension ref="A1:Z6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P1" sqref="P1"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -929,7 +863,7 @@
       <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="15" t="s">
+      <c r="P1" s="10" t="s">
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
@@ -964,178 +898,422 @@
       </c>
     </row>
     <row r="2" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="8">
+      <c r="A2" s="4">
         <v>45755.507338530093</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" s="9" t="s">
+      <c r="D2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" s="9" t="s">
+      <c r="G2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="O2" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="P2" s="14" t="s">
+      <c r="P2" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="Q2" s="9">
+      <c r="Q2" s="5">
         <v>120</v>
       </c>
-      <c r="R2" s="10">
+      <c r="R2" s="6">
         <v>45755</v>
       </c>
-      <c r="S2" s="10">
+      <c r="S2" s="6">
         <v>45755</v>
       </c>
-      <c r="T2" s="9" t="s">
+      <c r="T2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="U2" s="11" t="s">
+      <c r="U2" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="V2" s="11" t="s">
+      <c r="V2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="W2" s="9">
+      <c r="W2" s="5">
         <v>98521422121</v>
       </c>
-      <c r="X2" s="9">
+      <c r="X2" s="5">
         <v>0</v>
       </c>
-      <c r="Y2" s="9" t="s">
+      <c r="Y2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="Z2" s="12" t="s">
+      <c r="Z2" s="8" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="13"/>
-      <c r="V3" s="13"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="7"/>
+      <c r="A3" s="4">
+        <v>45755.507338530093</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>120</v>
+      </c>
+      <c r="R3" s="6">
+        <v>45755</v>
+      </c>
+      <c r="S3" s="6">
+        <v>45755</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="U3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="V3" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="W3" s="5">
+        <v>98521422121</v>
+      </c>
+      <c r="X3" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z3" s="8" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A4" s="8"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="9"/>
-      <c r="U4" s="11"/>
-      <c r="V4" s="11"/>
-      <c r="W4" s="9"/>
-      <c r="X4" s="9"/>
-      <c r="Y4" s="9"/>
-      <c r="Z4" s="12"/>
+    <row r="4" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>45755.507338530093</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="P4" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>120</v>
+      </c>
+      <c r="R4" s="6">
+        <v>45755</v>
+      </c>
+      <c r="S4" s="6">
+        <v>45755</v>
+      </c>
+      <c r="T4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="U4" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="V4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="W4" s="5">
+        <v>98521422121</v>
+      </c>
+      <c r="X4" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z4" s="8" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="13"/>
-      <c r="V5" s="13"/>
-      <c r="W5" s="5"/>
-      <c r="X5" s="5"/>
-      <c r="Y5" s="5"/>
-      <c r="Z5" s="7"/>
+    <row r="5" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>45755.507338530093</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>120</v>
+      </c>
+      <c r="R5" s="6">
+        <v>45755</v>
+      </c>
+      <c r="S5" s="6">
+        <v>45755</v>
+      </c>
+      <c r="T5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="U5" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="V5" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="W5" s="5">
+        <v>98521422121</v>
+      </c>
+      <c r="X5" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z5" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>45755.507338530093</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="P6" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>120</v>
+      </c>
+      <c r="R6" s="6">
+        <v>45755</v>
+      </c>
+      <c r="S6" s="6">
+        <v>45755</v>
+      </c>
+      <c r="T6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="U6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="V6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="W6" s="5">
+        <v>98521422121</v>
+      </c>
+      <c r="X6" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z6" s="8" t="s">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="U2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-00006F0E0000}"/>
     <hyperlink ref="V2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-0000700E0000}"/>
+    <hyperlink ref="U3" r:id="rId3" xr:uid="{EA2CAE4D-1F94-4AE1-BA65-D887DBAEACC6}"/>
+    <hyperlink ref="V3" r:id="rId4" xr:uid="{545AD740-1F13-4EA3-BEB0-DBAED192B397}"/>
+    <hyperlink ref="U5" r:id="rId5" xr:uid="{075F9EE5-A673-4913-9FC5-ED18BC895432}"/>
+    <hyperlink ref="V5" r:id="rId6" xr:uid="{2D0358EA-E427-43BA-89BB-F20B59F284B2}"/>
+    <hyperlink ref="U4" r:id="rId7" xr:uid="{F7078812-2A11-42B9-B30D-9D18252397D0}"/>
+    <hyperlink ref="V4" r:id="rId8" xr:uid="{7920A5C1-4DB8-4BAB-9A6E-98EFFA359E03}"/>
+    <hyperlink ref="U6" r:id="rId9" xr:uid="{AF371C7E-58EA-4A2E-969C-ABEEB490F7A0}"/>
+    <hyperlink ref="V6" r:id="rId10" xr:uid="{7467B449-8315-4BDE-8A7E-FEBFDD47D4C6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId11"/>
   <tableParts count="1">
-    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId12"/>
   </tableParts>
 </worksheet>
 </file>
--- a/MAINTENANCE CABLE REQUEST TO VTC.xlsx
+++ b/MAINTENANCE CABLE REQUEST TO VTC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\trc_auto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C12089A-B8ED-4E25-A816-F7C687E465AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{762D5390-AF1F-4B2E-A35C-1A2ABA72CB0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-2715" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -105,9 +105,6 @@
     <t>Score</t>
   </si>
   <si>
-    <t>Email Address</t>
-  </si>
-  <si>
     <t>Request to:</t>
   </si>
   <si>
@@ -117,9 +114,6 @@
     <t>Pursat</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>FBB</t>
   </si>
   <si>
@@ -163,6 +157,12 @@
   </si>
   <si>
     <t>Fiber Optical Cable Slicing/Fiber Optical Cleaver</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Record dcan38802@gmail.com as the email to be included with my response</t>
   </si>
 </sst>
 </file>
@@ -582,7 +582,7 @@
     <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="រូបភាពនៃគំនូសនៅលើ Google Map ដែលមានចំណុចចាប់ផ្តើមនិងបញ្ចប់ (Picture of drawing in google map with start and end lat/long):"/>
     <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="Account number"/>
     <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="Score"/>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="Email Address"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="Email"/>
     <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="Request to:"/>
   </tableColumns>
   <tableStyleInfo name="Logdata-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
@@ -792,9 +792,9 @@
   </sheetPr>
   <dimension ref="A1:Z6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6:XFD6"/>
+      <selection pane="bottomLeft" activeCell="Y6" sqref="Y6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -867,7 +867,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="R1" s="2" t="s">
         <v>16</v>
@@ -891,10 +891,10 @@
         <v>22</v>
       </c>
       <c r="Y1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z1" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
@@ -902,49 +902,49 @@
         <v>45755.507338530093</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" s="5" t="s">
+      <c r="N2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2" s="9" t="s">
         <v>40</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="P2" s="9" t="s">
-        <v>42</v>
       </c>
       <c r="Q2" s="5">
         <v>120</v>
@@ -956,13 +956,13 @@
         <v>45755</v>
       </c>
       <c r="T2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="V2" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="U2" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="V2" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="W2" s="5">
         <v>98521422121</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="Y2" s="5" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="Z2" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
@@ -982,49 +982,49 @@
         <v>45755.507338530093</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" s="5" t="s">
+      <c r="N3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="P3" s="9" t="s">
         <v>40</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="P3" s="9" t="s">
-        <v>42</v>
       </c>
       <c r="Q3" s="5">
         <v>120</v>
@@ -1036,13 +1036,13 @@
         <v>45755</v>
       </c>
       <c r="T3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="U3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="V3" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="U3" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="V3" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="W3" s="5">
         <v>98521422121</v>
@@ -1051,10 +1051,10 @@
         <v>0</v>
       </c>
       <c r="Y3" s="5" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="Z3" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
@@ -1062,49 +1062,49 @@
         <v>45755.507338530093</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" s="5" t="s">
+      <c r="N4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="P4" s="9" t="s">
         <v>40</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="P4" s="9" t="s">
-        <v>42</v>
       </c>
       <c r="Q4" s="5">
         <v>120</v>
@@ -1116,13 +1116,13 @@
         <v>45755</v>
       </c>
       <c r="T4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="U4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="V4" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="U4" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="V4" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="W4" s="5">
         <v>98521422121</v>
@@ -1131,10 +1131,10 @@
         <v>0</v>
       </c>
       <c r="Y4" s="5" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="Z4" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
@@ -1142,49 +1142,49 @@
         <v>45755.507338530093</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" s="5" t="s">
+      <c r="N5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="P5" s="9" t="s">
         <v>40</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="O5" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="P5" s="9" t="s">
-        <v>42</v>
       </c>
       <c r="Q5" s="5">
         <v>120</v>
@@ -1196,13 +1196,13 @@
         <v>45755</v>
       </c>
       <c r="T5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="U5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="V5" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="U5" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="V5" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="W5" s="5">
         <v>98521422121</v>
@@ -1211,10 +1211,10 @@
         <v>0</v>
       </c>
       <c r="Y5" s="5" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="Z5" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
@@ -1222,49 +1222,49 @@
         <v>45755.507338530093</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" s="5" t="s">
+      <c r="N6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="P6" s="9" t="s">
         <v>40</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="N6" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="O6" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="P6" s="9" t="s">
-        <v>42</v>
       </c>
       <c r="Q6" s="5">
         <v>120</v>
@@ -1276,13 +1276,13 @@
         <v>45755</v>
       </c>
       <c r="T6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="U6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="V6" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="U6" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="V6" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="W6" s="5">
         <v>98521422121</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="Y6" s="5" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="Z6" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
